--- a/weibo_data/WeiboDataWithSDK/景点微博数据统计.xlsx
+++ b/weibo_data/WeiboDataWithSDK/景点微博数据统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>米亚罗</t>
   </si>
@@ -76,15 +76,19 @@
     <t>B2094653DB64A1F4409D</t>
   </si>
   <si>
-    <t>签到</t>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周边</t>
+    <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PoiTimeline</t>
+    <t>Lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -447,18 +451,21 @@
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -471,14 +478,8 @@
       <c r="D2">
         <v>102.80677515000001</v>
       </c>
-      <c r="F2">
-        <v>2959</v>
-      </c>
-      <c r="G2">
-        <v>5042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -491,14 +492,8 @@
       <c r="D3">
         <v>102.810272</v>
       </c>
-      <c r="F3">
-        <v>2965</v>
-      </c>
-      <c r="G3">
-        <v>5268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -511,14 +506,8 @@
       <c r="D4">
         <v>102.97848</v>
       </c>
-      <c r="F4">
-        <v>3365</v>
-      </c>
-      <c r="G4">
-        <v>6067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -531,14 +520,8 @@
       <c r="D5">
         <v>102.98744000000001</v>
       </c>
-      <c r="F5">
-        <v>3561</v>
-      </c>
-      <c r="G5">
-        <v>6870</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -551,14 +534,8 @@
       <c r="D6">
         <v>103.071091</v>
       </c>
-      <c r="F6">
-        <v>3747</v>
-      </c>
-      <c r="G6">
-        <v>6931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -571,14 +548,8 @@
       <c r="D7">
         <v>102.95245</v>
       </c>
-      <c r="F7">
-        <v>3815</v>
-      </c>
-      <c r="G7">
-        <v>6980</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -591,14 +562,8 @@
       <c r="D8">
         <v>103.45722781000001</v>
       </c>
-      <c r="F8">
-        <v>4133</v>
-      </c>
-      <c r="G8">
-        <v>8168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -611,14 +576,8 @@
       <c r="D9">
         <v>103.46205</v>
       </c>
-      <c r="F9">
-        <v>4133</v>
-      </c>
-      <c r="G9">
-        <v>8168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -631,14 +590,8 @@
       <c r="D10">
         <v>103.45392</v>
       </c>
-      <c r="F10">
-        <v>4217</v>
-      </c>
-      <c r="G10">
-        <v>8193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -650,17 +603,6 @@
       </c>
       <c r="D11">
         <v>103.19954</v>
-      </c>
-      <c r="F11">
-        <v>4341</v>
-      </c>
-      <c r="G11">
-        <v>8448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E12">
-        <v>2807</v>
       </c>
     </row>
   </sheetData>
